--- a/examples/programs/new_line_2024.xlsx
+++ b/examples/programs/new_line_2024.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,6 +830,8 @@
     <col width="17" customWidth="1" min="36" max="36"/>
     <col width="13" customWidth="1" min="37" max="37"/>
     <col width="22" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1023,6 +1025,16 @@
           <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_HULL</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_LIABILITY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1052,6 +1064,12 @@
       </c>
       <c r="AH2" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1083,6 +1101,12 @@
       <c r="AH3" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1113,6 +1137,12 @@
       <c r="AH4" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1143,6 +1173,12 @@
       <c r="AH5" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1173,6 +1209,12 @@
       <c r="AH6" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1203,6 +1245,12 @@
       <c r="AH7" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1233,6 +1281,12 @@
       <c r="AH8" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1263,6 +1317,12 @@
       <c r="AH9" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1293,6 +1353,12 @@
       <c r="AH10" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1323,6 +1389,12 @@
       <c r="AH11" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1353,6 +1425,12 @@
       <c r="AH12" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1383,6 +1461,12 @@
       <c r="AH13" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1413,6 +1497,12 @@
       <c r="AH14" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1443,6 +1533,12 @@
       <c r="AH15" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1473,6 +1569,12 @@
       <c r="AH16" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1503,6 +1605,12 @@
       <c r="AH17" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1533,6 +1641,12 @@
       <c r="AH18" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1563,6 +1677,12 @@
       <c r="AH19" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1593,6 +1713,12 @@
       <c r="AH20" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1623,6 +1749,12 @@
       <c r="AH21" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1653,6 +1785,12 @@
       <c r="AH22" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1683,6 +1821,12 @@
       <c r="AH23" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1713,6 +1857,12 @@
       <c r="AH24" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1743,6 +1893,12 @@
       <c r="AH25" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1773,6 +1929,12 @@
       <c r="AH26" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1803,6 +1965,12 @@
       <c r="AH27" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1833,6 +2001,12 @@
       <c r="AH28" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1863,6 +2037,12 @@
       <c r="AH29" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1893,6 +2073,12 @@
       <c r="AH30" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1923,6 +2109,12 @@
       <c r="AH31" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1953,6 +2145,12 @@
       <c r="AH32" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1983,6 +2181,12 @@
       <c r="AH33" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2013,6 +2217,12 @@
       <c r="AH34" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2043,6 +2253,12 @@
       <c r="AH35" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2073,6 +2289,12 @@
       <c r="AH36" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2103,6 +2325,12 @@
       <c r="AH37" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2133,6 +2361,12 @@
       <c r="AH38" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2163,6 +2397,12 @@
       <c r="AH39" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2193,6 +2433,12 @@
       <c r="AH40" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2223,6 +2469,12 @@
       <c r="AH41" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2248,6 +2500,12 @@
       <c r="AH42" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2273,6 +2531,12 @@
       <c r="AH43" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2298,6 +2562,12 @@
       <c r="AH44" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2323,6 +2593,12 @@
       <c r="AH45" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2348,6 +2624,12 @@
       <c r="AH46" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2373,6 +2655,12 @@
       <c r="AH47" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2398,6 +2686,12 @@
       <c r="AH48" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2423,6 +2717,12 @@
       <c r="AH49" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2448,6 +2748,12 @@
       <c r="AH50" t="n">
         <v>0.1</v>
       </c>
+      <c r="AM50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2472,6 +2778,12 @@
       </c>
       <c r="AH51" t="n">
         <v>0.1</v>
+      </c>
+      <c r="AM51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/programs/new_line_2024.xlsx
+++ b/examples/programs/new_line_2024.xlsx
@@ -1065,12 +1065,6 @@
       <c r="AH2" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1101,12 +1095,6 @@
       <c r="AH3" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1137,12 +1125,6 @@
       <c r="AH4" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1173,12 +1155,6 @@
       <c r="AH5" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1209,12 +1185,6 @@
       <c r="AH6" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1245,12 +1215,6 @@
       <c r="AH7" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1281,12 +1245,6 @@
       <c r="AH8" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1317,12 +1275,6 @@
       <c r="AH9" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1353,12 +1305,6 @@
       <c r="AH10" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1389,12 +1335,6 @@
       <c r="AH11" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1425,12 +1365,6 @@
       <c r="AH12" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1461,12 +1395,6 @@
       <c r="AH13" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1497,12 +1425,6 @@
       <c r="AH14" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1533,12 +1455,6 @@
       <c r="AH15" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1569,12 +1485,6 @@
       <c r="AH16" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1605,12 +1515,6 @@
       <c r="AH17" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1641,12 +1545,6 @@
       <c r="AH18" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1677,12 +1575,6 @@
       <c r="AH19" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1713,12 +1605,6 @@
       <c r="AH20" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1749,12 +1635,6 @@
       <c r="AH21" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1785,12 +1665,6 @@
       <c r="AH22" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1821,12 +1695,6 @@
       <c r="AH23" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,12 +1725,6 @@
       <c r="AH24" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1893,12 +1755,6 @@
       <c r="AH25" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1929,12 +1785,6 @@
       <c r="AH26" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1965,12 +1815,6 @@
       <c r="AH27" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2001,12 +1845,6 @@
       <c r="AH28" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2037,12 +1875,6 @@
       <c r="AH29" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2073,12 +1905,6 @@
       <c r="AH30" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2109,12 +1935,6 @@
       <c r="AH31" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2145,12 +1965,6 @@
       <c r="AH32" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2181,12 +1995,6 @@
       <c r="AH33" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2217,12 +2025,6 @@
       <c r="AH34" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2253,12 +2055,6 @@
       <c r="AH35" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2289,12 +2085,6 @@
       <c r="AH36" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2325,12 +2115,6 @@
       <c r="AH37" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN37" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2361,12 +2145,6 @@
       <c r="AH38" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN38" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2397,12 +2175,6 @@
       <c r="AH39" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN39" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2433,12 +2205,6 @@
       <c r="AH40" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN40" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2469,12 +2235,6 @@
       <c r="AH41" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN41" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2500,12 +2260,6 @@
       <c r="AH42" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN42" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2531,12 +2285,6 @@
       <c r="AH43" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN43" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2562,12 +2310,6 @@
       <c r="AH44" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN44" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2593,12 +2335,6 @@
       <c r="AH45" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN45" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2624,12 +2360,6 @@
       <c r="AH46" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN46" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2655,12 +2385,6 @@
       <c r="AH47" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN47" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2686,12 +2410,6 @@
       <c r="AH48" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN48" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2717,12 +2435,6 @@
       <c r="AH49" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN49" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2748,12 +2460,6 @@
       <c r="AH50" t="n">
         <v>0.1</v>
       </c>
-      <c r="AM50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN50" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2778,12 +2484,6 @@
       </c>
       <c r="AH51" t="n">
         <v>0.1</v>
-      </c>
-      <c r="AM51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN51" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/programs/new_line_2024.xlsx
+++ b/examples/programs/new_line_2024.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="program" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="structures" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="conditions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/examples/programs/new_line_2024.xlsx
+++ b/examples/programs/new_line_2024.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN51"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,7 +803,7 @@
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="47" customWidth="1" min="12" max="12"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
     <col width="27" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
     <col width="25" customWidth="1" min="15" max="15"/>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Financial Institutions</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1078,19 +1078,19 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Commercial Crime</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="S3" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH3" t="n">
         <v>0.1</v>
@@ -1108,19 +1108,19 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>3000000</v>
+        <v>4500000</v>
       </c>
       <c r="S4" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH4" t="n">
         <v>0.1</v>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Commercial Directors and Officers</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>3000000</v>
+        <v>5250000</v>
       </c>
       <c r="S5" t="n">
-        <v>1000000</v>
+        <v>1750000</v>
       </c>
       <c r="AH5" t="n">
         <v>0.1</v>
@@ -1168,19 +1168,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Medical Malpractice</t>
+          <t>Financial Institutions;Commercial Crime;Professional Indemnity / Errors and Omissions;Commercial Directors and Officers;Medical Malpractice;Transactional Liability</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="S6" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AH6" t="n">
         <v>0.1</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Transactional Liability</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="S7" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AH7" t="n">
         <v>0.1</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Financial Institutions</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>4500000</v>
+        <v>3750000</v>
       </c>
       <c r="S8" t="n">
-        <v>1500000</v>
+        <v>2250000</v>
       </c>
       <c r="AH8" t="n">
         <v>0.1</v>
@@ -1258,19 +1258,19 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Commercial Crime</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>4500000</v>
+        <v>3750000</v>
       </c>
       <c r="S9" t="n">
-        <v>1500000</v>
+        <v>2250000</v>
       </c>
       <c r="AH9" t="n">
         <v>0.1</v>
@@ -1288,19 +1288,19 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>4500000</v>
+        <v>4375000</v>
       </c>
       <c r="S10" t="n">
-        <v>1500000</v>
+        <v>2625000</v>
       </c>
       <c r="AH10" t="n">
         <v>0.1</v>
@@ -1318,19 +1318,19 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Commercial Directors and Officers</t>
+          <t>Employers' Liability;General Liability</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>4500000</v>
+        <v>7000000</v>
       </c>
       <c r="S11" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="AH11" t="n">
         <v>0.1</v>
@@ -1344,23 +1344,18 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Medical Malpractice</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>4500000</v>
+        <v>6000000</v>
       </c>
       <c r="S12" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="AH12" t="n">
         <v>0.1</v>
@@ -1374,12 +1369,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Transactional Liability</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1387,10 +1377,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>4500000</v>
+        <v>9000000</v>
       </c>
       <c r="S13" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="AH13" t="n">
         <v>0.1</v>
@@ -1404,12 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Financial Institutions</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1417,10 +1402,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>4500000</v>
+        <v>9000000</v>
       </c>
       <c r="S14" t="n">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
       <c r="AH14" t="n">
         <v>0.1</v>
@@ -1434,23 +1419,18 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Commercial Crime</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>4500000</v>
+        <v>10500000</v>
       </c>
       <c r="S15" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="AH15" t="n">
         <v>0.1</v>
@@ -1464,23 +1444,18 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>4500000</v>
+        <v>15000000</v>
       </c>
       <c r="S16" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="AH16" t="n">
         <v>0.1</v>
@@ -1494,23 +1469,18 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Commercial Directors and Officers</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>4500000</v>
+        <v>5000000</v>
       </c>
       <c r="S17" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="AH17" t="n">
         <v>0.1</v>
@@ -1524,23 +1494,18 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Medical Malpractice</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="S18" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="AH18" t="n">
         <v>0.1</v>
@@ -1554,12 +1519,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Transactional Liability</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1567,10 +1527,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="S19" t="n">
-        <v>1500000</v>
+        <v>15000000</v>
       </c>
       <c r="AH19" t="n">
         <v>0.1</v>
@@ -1584,12 +1544,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Financial Institutions</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1597,10 +1552,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>5250000</v>
+        <v>8750000</v>
       </c>
       <c r="S20" t="n">
-        <v>1750000</v>
+        <v>17500000</v>
       </c>
       <c r="AH20" t="n">
         <v>0.1</v>
@@ -1614,875 +1569,20 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Commercial Crime</t>
-        </is>
+        <v>3</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>5250000</v>
+        <v>5000000</v>
       </c>
       <c r="S21" t="n">
-        <v>1750000</v>
+        <v>25000000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>5250000</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Commercial Directors and Officers</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>5250000</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Medical Malpractice</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>5250000</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>5250000</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Financial Institutions</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Commercial Crime</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Professional Indemnity / Errors and Omissions</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Commercial Directors and Officers</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Medical Malpractice</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Transactional Liability</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>3750000</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>3750000</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>3750000</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>3750000</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2250000</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>4375000</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2625000</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>4375000</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2625000</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Employers' Liability</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q40" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>General Liability</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q41" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q42" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="S43" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="S44" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>10500000</v>
-      </c>
-      <c r="S45" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="S46" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>3</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S47" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S48" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>3</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="S49" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>8750000</v>
-      </c>
-      <c r="S50" t="n">
-        <v>17500000</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="S51" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="AH51" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/examples/programs/new_line_2024.xlsx
+++ b/examples/programs/new_line_2024.xlsx
@@ -784,7 +784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,26 +812,25 @@
     <col width="19" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="27" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="21" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="16" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="23" customWidth="1" min="35" max="35"/>
-    <col width="17" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="22" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="27" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="28" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="13" customWidth="1" min="36" max="36"/>
+    <col width="22" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,100 +936,95 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_OCCURRENCE_100</t>
+          <t>LIMIT_AGG_100</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_AGG_100</t>
+          <t>CESSION_PCT</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>CESSION_PCT</t>
+          <t>RETENTION_PCT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RETENTION_PCT</t>
+          <t>SUPI_100</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SUPI_100</t>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+          <t>PREMIUM_RATE_PCT</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_RATE_PCT</t>
+          <t>PREMIUM_DEPOSIT_100</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_DEPOSIT_100</t>
+          <t>PREMIUM_MIN_100</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_MIN_100</t>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_LIABILITY_1_LINE_100</t>
+          <t>MAX_COVER_PCT</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MAX_COVER_PCT</t>
+          <t>MIN_EXCESS_PCT</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MIN_EXCESS_PCT</t>
+          <t>SIGNED_SHARE_PCT</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>SIGNED_SHARE_PCT</t>
+          <t>AVERAGE_LINE_SLAV_CED</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_LINE_SLAV_CED</t>
+          <t>PML_DEFAULT_PCT</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>PML_DEFAULT_PCT</t>
+          <t>LIMIT_EVENT</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_EVENT</t>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>NO_OF_REINSTATEMENTS</t>
+          <t>INCLUDES_HULL</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>INCLUDES_HULL</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>INCLUDES_LIABILITY</t>
         </is>
@@ -1062,7 +1056,7 @@
       <c r="S2" t="n">
         <v>1000000</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AG2" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1092,7 +1086,7 @@
       <c r="S3" t="n">
         <v>1500000</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AG3" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1122,7 +1116,7 @@
       <c r="S4" t="n">
         <v>1500000</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AG4" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1152,7 +1146,7 @@
       <c r="S5" t="n">
         <v>1750000</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AG5" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1182,7 +1176,7 @@
       <c r="S6" t="n">
         <v>2000000</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AG6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1212,7 +1206,7 @@
       <c r="S7" t="n">
         <v>1500000</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AG7" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1242,7 +1236,7 @@
       <c r="S8" t="n">
         <v>2250000</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AG8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1272,7 +1266,7 @@
       <c r="S9" t="n">
         <v>2250000</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AG9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1302,7 +1296,7 @@
       <c r="S10" t="n">
         <v>2625000</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AG10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1332,7 +1326,7 @@
       <c r="S11" t="n">
         <v>3000000</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AG11" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1357,7 +1351,7 @@
       <c r="S12" t="n">
         <v>4000000</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AG12" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1382,7 +1376,7 @@
       <c r="S13" t="n">
         <v>6000000</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AG13" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1407,7 +1401,7 @@
       <c r="S14" t="n">
         <v>6000000</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AG14" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1432,7 +1426,7 @@
       <c r="S15" t="n">
         <v>7000000</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AG15" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1457,7 +1451,7 @@
       <c r="S16" t="n">
         <v>10000000</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AG16" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1482,7 +1476,7 @@
       <c r="S17" t="n">
         <v>10000000</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AG17" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1507,7 +1501,7 @@
       <c r="S18" t="n">
         <v>15000000</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AG18" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1532,7 +1526,7 @@
       <c r="S19" t="n">
         <v>15000000</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AG19" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1557,7 +1551,7 @@
       <c r="S20" t="n">
         <v>17500000</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AG20" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1582,7 +1576,7 @@
       <c r="S21" t="n">
         <v>25000000</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AG21" t="n">
         <v>0.1</v>
       </c>
     </row>
